--- a/xlsx/澳洲國家圖書館_intext.xlsx
+++ b/xlsx/澳洲國家圖書館_intext.xlsx
@@ -29,7 +29,7 @@
     <t>澳洲政府</t>
   </si>
   <si>
-    <t>政策_政策_美國_澳洲國家圖書館</t>
+    <t>体育运动_体育运动_皮埃尔·德·顾拜旦_澳洲國家圖書館</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E9%A6%96%E9%83%BD%E9%A2%86%E5%9C%B0</t>
